--- a/excel_file_formats/Recharge data_AA.xlsx
+++ b/excel_file_formats/Recharge data_AA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Artificial Structures" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,70 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="F7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Anand:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Better to have a master for distributaries and user may select one.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K7" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b val="true"/>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Anand:
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Same OUT Let may not be catering all the sub units. Hence the structure should include sub unit and only no of days during mon and non seasons.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="105">
   <si>
     <t xml:space="preserve">State</t>
   </si>
@@ -243,9 +181,6 @@
     <t xml:space="preserve">B</t>
   </si>
   <si>
-    <t xml:space="preserve">change in service to compute wetted parimeter and wetted area</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water Bodies</t>
   </si>
   <si>
@@ -288,24 +223,21 @@
     <t xml:space="preserve">Ponds</t>
   </si>
   <si>
-    <t xml:space="preserve">change in service to use avgSpreadArea</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rainfall Cumulative History Data</t>
   </si>
   <si>
+    <t xml:space="preserve">Rainfall [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual</t>
+  </si>
+  <si>
     <t xml:space="preserve">Normal</t>
   </si>
   <si>
     <t xml:space="preserve">Non-Monsoon</t>
   </si>
   <si>
-    <t xml:space="preserve">Rainfall [mm]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nemalladinee</t>
   </si>
   <si>
@@ -315,12 +247,6 @@
     <t xml:space="preserve">2013-2014</t>
   </si>
   <si>
-    <t xml:space="preserve">change in service for rf: command-non_command</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how we will get the rf-rechage data and rainfall data for past years for normalization</t>
-  </si>
-  <si>
     <t xml:space="preserve">Groundwater Data</t>
   </si>
   <si>
@@ -351,15 +277,6 @@
     <t xml:space="preserve">Non-command</t>
   </si>
   <si>
-    <t xml:space="preserve">5-10 years data is to be captured.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only Pre and Post monsoon wls are needed the third once can be taken programmatically where ever needed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">change in gw pojo :: assessment year vs existing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Water Supplied for Surface Irrigation</t>
   </si>
   <si>
@@ -405,18 +322,6 @@
     <t xml:space="preserve">D2</t>
   </si>
   <si>
-    <t xml:space="preserve">Design and Average discharge fields are to be checked. If avg is filled same data should be used in computations other wise it is 60% of design discharge,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement 60% logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? In current structure user can leave the fields whichever not required</t>
-  </si>
-  <si>
-    <t xml:space="preserve">? where will be get list of master distributeries initially</t>
-  </si>
-  <si>
     <t xml:space="preserve">Surface water Irrigation Area</t>
   </si>
   <si>
@@ -436,9 +341,6 @@
   </si>
   <si>
     <t xml:space="preserve">Non-paddy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No need for thos sheet</t>
   </si>
 </sst>
 </file>
@@ -448,7 +350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -558,35 +460,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF3333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
@@ -602,7 +475,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,12 +486,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -670,7 +537,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -727,14 +594,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,19 +650,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -811,15 +658,55 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -827,59 +714,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -892,66 +727,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF3333"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -968,17 +743,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.7602040816327"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.6785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.8418367346939"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.8316326530612"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.9744897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.25"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,26 +1116,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:20"/>
+  <dimension ref="1:15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6683673469388"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="35.6581632653061"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="34.8265306122449"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1439,7 +1214,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -1459,7 +1234,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -1471,16 +1246,13 @@
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" s="16" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" s="14" customFormat="true" ht="15.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0"/>
       <c r="B7" s="0"/>
       <c r="C7" s="0"/>
       <c r="D7" s="0"/>
       <c r="E7" s="0"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
@@ -1494,355 +1266,341 @@
       <c r="AMJ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
     </row>
     <row r="9" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="N9" s="21" t="s">
+      <c r="N9" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="21" t="s">
+      <c r="O9" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="P9" s="21"/>
+      <c r="P9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="21" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L10" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="21" t="s">
+      <c r="M10" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="19" t="s">
+      <c r="N10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="21" t="s">
+      <c r="O10" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="21" t="s">
+      <c r="P10" s="19" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="22" t="n">
+      <c r="I11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J11" s="22" t="n">
+      <c r="J11" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="n">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="M11" s="22" t="n">
+      <c r="M11" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="N11" s="22" t="n">
+      <c r="N11" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="O11" s="22" t="n">
+      <c r="O11" s="20" t="n">
         <v>90</v>
       </c>
-      <c r="P11" s="22" t="n">
+      <c r="P11" s="20" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
+      <c r="A12" s="20" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="22" t="s">
+      <c r="H12" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="22" t="n">
+      <c r="I12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J12" s="22" t="n">
+      <c r="J12" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22" t="n">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="M12" s="22" t="n">
+      <c r="M12" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="N12" s="22" t="n">
+      <c r="N12" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="O12" s="22" t="n">
+      <c r="O12" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="P12" s="22" t="n">
+      <c r="P12" s="20" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
+      <c r="A13" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="22" t="n">
+      <c r="I13" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J13" s="22" t="n">
+      <c r="J13" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22" t="n">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="M13" s="22" t="n">
+      <c r="M13" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="N13" s="22" t="n">
+      <c r="N13" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="O13" s="22" t="n">
+      <c r="O13" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="P13" s="22" t="n">
+      <c r="P13" s="20" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
+      <c r="A14" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="25"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="I14" s="22" t="n">
+      <c r="I14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J14" s="22" t="n">
+      <c r="J14" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22" t="n">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="M14" s="22" t="n">
+      <c r="M14" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="N14" s="22" t="n">
+      <c r="N14" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="O14" s="22" t="n">
+      <c r="O14" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="P14" s="22" t="n">
+      <c r="P14" s="20" t="n">
         <v>90</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
+      <c r="A15" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="22" t="n">
+      <c r="I15" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="J15" s="22" t="n">
+      <c r="J15" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22" t="n">
+      <c r="K15" s="20"/>
+      <c r="L15" s="20" t="n">
         <v>3</v>
       </c>
-      <c r="M15" s="22" t="n">
+      <c r="M15" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="N15" s="22" t="n">
+      <c r="N15" s="20" t="n">
         <v>3.5</v>
       </c>
-      <c r="O15" s="22" t="n">
+      <c r="O15" s="20" t="n">
         <v>30</v>
       </c>
-      <c r="P15" s="22" t="n">
+      <c r="P15" s="20" t="n">
         <v>90</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F16" s="15"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="15"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="15"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1876,24 +1634,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA19"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.3061224489796"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.3979591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="15" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="23.3979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="6" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="20" min="15" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1966,7 +1724,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2071,26 +1829,26 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="27" t="s">
+      <c r="G8" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -2098,7 +1856,7 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
@@ -2106,7 +1864,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
@@ -2118,145 +1876,145 @@
       <c r="AA8" s="11"/>
     </row>
     <row r="9" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="27"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="28" t="s">
+      <c r="J9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="28" t="s">
+      <c r="N9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="R9" s="4"/>
       <c r="S9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T9" s="4"/>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="Y9" s="4"/>
       <c r="Z9" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="A10" s="24"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N10" s="28"/>
+        <v>62</v>
+      </c>
+      <c r="N10" s="26"/>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="R10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="U10" s="28"/>
+        <v>62</v>
+      </c>
+      <c r="U10" s="26"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z10" s="4" t="s">
         <v>40</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="11"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="11"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="11"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
@@ -2269,13 +2027,13 @@
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -2310,13 +2068,13 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -2339,11 +2097,6 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
       <c r="AA13" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H19" s="0" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2390,23 +2143,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="19.6020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.7397959183673"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.7448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2446,7 +2202,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2474,7 +2230,7 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
@@ -2488,180 +2244,161 @@
       <c r="J5" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="30" t="s">
+      <c r="A9" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="30" t="s">
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="I11" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="D10" s="30"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="34" t="s">
+      <c r="J11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34" t="s">
+      <c r="F13" s="31"/>
+      <c r="G13" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="32" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="34"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="n">
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="38" t="s">
+      <c r="C15" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38" t="s">
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="n">
-        <v>2</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="40" t="n">
-        <v>3</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H32" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H33" s="0" t="s">
-        <v>76</v>
-      </c>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A18" r:id="rId1" display="S.No"/>
+    <hyperlink ref="A9" r:id="rId1" display="S.No"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2678,18 +2415,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:21"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7142857142857"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2706,8 +2452,9 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2724,13 +2471,14 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2742,6 +2490,7 @@
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
@@ -2757,9 +2506,10 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
@@ -2772,164 +2522,174 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="41" t="s">
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0"/>
+      <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
+      <c r="G6" s="0"/>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="24.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B10" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C10" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D10" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F10" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="L10" s="34"/>
+    </row>
+    <row r="11" customFormat="false" ht="30.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="L11" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="H6" s="42" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="G13" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="36" t="n">
+        <v>12</v>
+      </c>
+      <c r="I13" s="36" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="B14" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="36" t="s">
         <v>82</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="35" t="n">
-        <v>12</v>
-      </c>
-      <c r="H9" s="35" t="n">
-        <v>17</v>
-      </c>
-      <c r="I9" s="35" t="s">
+      <c r="G14" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="36" t="n">
+        <v>13</v>
+      </c>
+      <c r="I14" s="36" t="n">
+        <v>18</v>
+      </c>
+      <c r="J14" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10" s="35" t="n">
-        <v>13</v>
-      </c>
-      <c r="H10" s="35" t="n">
-        <v>18</v>
-      </c>
-      <c r="I10" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" s="44" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" s="44" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G21" s="0" t="s">
-        <v>89</v>
-      </c>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:K6"/>
+  <mergeCells count="11">
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:L10"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" display="S.No"/>
+    <hyperlink ref="A10" r:id="rId1" display="S.No"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2946,18 +2706,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:23"/>
+  <dimension ref="1:17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.3928571428571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.96428571428571"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2977,9 +2741,9 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -2997,12 +2761,12 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3017,7 +2781,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -3035,7 +2799,7 @@
       <c r="AB4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="2"/>
@@ -3052,376 +2816,372 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
+    <row r="7" s="14" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+    </row>
+    <row r="9" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-    </row>
-    <row r="7" s="16" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="N9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="42.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="21" t="s">
+      <c r="H13" s="30"/>
+      <c r="I13" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J13" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="K13" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="L13" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="M13" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="N13" s="39" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="39" t="n">
+        <v>2</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="39" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="G14" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="K14" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="L14" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="M14" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="N14" s="39" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30"/>
+      <c r="I15" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J15" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="K15" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="L15" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="M15" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="N15" s="39" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="39" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="30"/>
+      <c r="I16" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="J16" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="K16" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="L16" s="39" t="n">
+        <v>90</v>
+      </c>
+      <c r="M16" s="39" t="n">
+        <v>30</v>
+      </c>
+      <c r="N16" s="39" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="E17" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="N7" s="46"/>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="N8" s="46"/>
-    </row>
-    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="K9" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="M9" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="N9" s="46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="22" t="n">
+      <c r="G17" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="H11" s="35"/>
-      <c r="I11" s="22" t="n">
+      <c r="H17" s="30"/>
+      <c r="I17" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="J11" s="22" t="n">
+      <c r="J17" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="K11" s="48" t="n">
+      <c r="K17" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="L11" s="48" t="n">
+      <c r="L17" s="39" t="n">
         <v>90</v>
       </c>
-      <c r="M11" s="48" t="n">
+      <c r="M17" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="N11" s="48" t="n">
+      <c r="N17" s="39" t="n">
         <v>90</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J12" s="22" t="n">
-        <v>90</v>
-      </c>
-      <c r="K12" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="L12" s="48" t="n">
-        <v>90</v>
-      </c>
-      <c r="M12" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="N12" s="48" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J13" s="22" t="n">
-        <v>90</v>
-      </c>
-      <c r="K13" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="L13" s="48" t="n">
-        <v>90</v>
-      </c>
-      <c r="M13" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="N13" s="48" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" s="35"/>
-      <c r="I14" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J14" s="22" t="n">
-        <v>90</v>
-      </c>
-      <c r="K14" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="L14" s="48" t="n">
-        <v>90</v>
-      </c>
-      <c r="M14" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="N14" s="48" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="G15" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="J15" s="22" t="n">
-        <v>90</v>
-      </c>
-      <c r="K15" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="L15" s="48" t="n">
-        <v>90</v>
-      </c>
-      <c r="M15" s="48" t="n">
-        <v>30</v>
-      </c>
-      <c r="N15" s="48" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" s="44" customFormat="true" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E17" s="44" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I21" s="0" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I23" s="49" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3430,7 +3190,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3439,24 +3198,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P65536"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="5" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="9" min="6" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3477,8 +3241,9 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q1" s="2"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3499,13 +3264,14 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -3521,9 +3287,10 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="2"/>
@@ -3541,8 +3308,9 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3559,8 +3327,9 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3577,272 +3346,281 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="50" t="s">
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q9" s="42"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="N10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="P10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="43" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="43" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" s="43" t="n">
+        <v>3</v>
+      </c>
+      <c r="I12" s="43" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" s="43" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" s="43" t="n">
+        <v>6</v>
+      </c>
+      <c r="L12" s="43" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="43" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" s="43" t="n">
+        <v>9</v>
+      </c>
+      <c r="O12" s="43" t="n">
+        <v>10</v>
+      </c>
+      <c r="P12" s="43" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="43" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" s="43" t="n">
+        <v>101</v>
+      </c>
+      <c r="H13" s="43" t="n">
+        <v>102</v>
+      </c>
+      <c r="I13" s="43" t="n">
+        <v>103</v>
+      </c>
+      <c r="J13" s="43" t="n">
+        <v>104</v>
+      </c>
+      <c r="K13" s="43" t="n">
+        <v>105</v>
+      </c>
+      <c r="L13" s="43" t="n">
+        <v>106</v>
+      </c>
+      <c r="M13" s="43" t="n">
+        <v>107</v>
+      </c>
+      <c r="N13" s="43" t="n">
+        <v>108</v>
+      </c>
+      <c r="O13" s="43" t="n">
+        <v>109</v>
+      </c>
+      <c r="P13" s="43" t="n">
         <v>110</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="Q13" s="43" t="n">
         <v>111</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="P9" s="45"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="I10" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="L10" s="51" t="s">
-        <v>69</v>
-      </c>
-      <c r="M10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N10" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="O10" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E12" s="38" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="38" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="38" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" s="38" t="n">
-        <v>4</v>
-      </c>
-      <c r="I12" s="38" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" s="38" t="n">
-        <v>6</v>
-      </c>
-      <c r="K12" s="38" t="n">
-        <v>7</v>
-      </c>
-      <c r="L12" s="38" t="n">
-        <v>8</v>
-      </c>
-      <c r="M12" s="38" t="n">
-        <v>9</v>
-      </c>
-      <c r="N12" s="38" t="n">
-        <v>10</v>
-      </c>
-      <c r="O12" s="38" t="n">
-        <v>11</v>
-      </c>
-      <c r="P12" s="38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52" t="n">
-        <v>2</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="38" t="n">
-        <v>100</v>
-      </c>
-      <c r="F13" s="38" t="n">
-        <v>101</v>
-      </c>
-      <c r="G13" s="38" t="n">
-        <v>102</v>
-      </c>
-      <c r="H13" s="38" t="n">
-        <v>103</v>
-      </c>
-      <c r="I13" s="38" t="n">
-        <v>104</v>
-      </c>
-      <c r="J13" s="38" t="n">
-        <v>105</v>
-      </c>
-      <c r="K13" s="38" t="n">
-        <v>106</v>
-      </c>
-      <c r="L13" s="38" t="n">
-        <v>107</v>
-      </c>
-      <c r="M13" s="38" t="n">
-        <v>108</v>
-      </c>
-      <c r="N13" s="38" t="n">
-        <v>109</v>
-      </c>
-      <c r="O13" s="38" t="n">
-        <v>110</v>
-      </c>
-      <c r="P13" s="38" t="n">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A7:P7"/>
+  <mergeCells count="16">
+    <mergeCell ref="A7:Q7"/>
     <mergeCell ref="A8:A10"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A11:P11"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="A11:Q11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A8" r:id="rId1" display="S.No"/>
